--- a/autotestInterface/interfaceTest/database/DemoAPITestCase.xlsx
+++ b/autotestInterface/interfaceTest/database/DemoAPITestCase.xlsx
@@ -31,6 +31,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zhang</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>weng:body_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
@@ -58,7 +90,7 @@
     <t>body</t>
   </si>
   <si>
-    <t>type</t>
+    <t>body_type</t>
   </si>
   <si>
     <t>status_code</t>
@@ -107,7 +139,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +311,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1138,10 +1181,10 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1149,7 +1192,7 @@
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
@@ -1321,11 +1364,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://api-ext.abctime.com/dev/market_service/admin/order/detail" tooltip="https://api-ext.abctime.com/dev/market_service/admin/order/detail"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://api-ext.abctime.com/dev/market_service/admin/order/detail" tooltip="https://api-ext.abctime.com/dev/market_service/admin/order/detail"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
